--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H2">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I2">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J2">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N2">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O2">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P2">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q2">
-        <v>28.65651780152834</v>
+        <v>17.125010989696</v>
       </c>
       <c r="R2">
-        <v>257.908660213755</v>
+        <v>154.125098907264</v>
       </c>
       <c r="S2">
-        <v>0.00909598068281974</v>
+        <v>0.005764623483413707</v>
       </c>
       <c r="T2">
-        <v>0.009551687972325421</v>
+        <v>0.006050937776661429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H3">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I3">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J3">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P3">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q3">
-        <v>336.7576116418297</v>
+        <v>259.895925868092</v>
       </c>
       <c r="R3">
-        <v>3030.818504776467</v>
+        <v>2339.063332812828</v>
       </c>
       <c r="S3">
-        <v>0.1068915892538495</v>
+        <v>0.08748620122954717</v>
       </c>
       <c r="T3">
-        <v>0.1122468420966608</v>
+        <v>0.09183141994956191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H4">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I4">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J4">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N4">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O4">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P4">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q4">
-        <v>729.7518903557722</v>
+        <v>781.0803292666481</v>
       </c>
       <c r="R4">
-        <v>6567.767013201949</v>
+        <v>7029.722963399833</v>
       </c>
       <c r="S4">
-        <v>0.2316334854046111</v>
+        <v>0.2629273646149619</v>
       </c>
       <c r="T4">
-        <v>0.243238288830795</v>
+        <v>0.2759863029466358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H5">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I5">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J5">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N5">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O5">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P5">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q5">
-        <v>285.1217247512513</v>
+        <v>243.07043822946</v>
       </c>
       <c r="R5">
-        <v>1710.730348507508</v>
+        <v>1458.42262937676</v>
       </c>
       <c r="S5">
-        <v>0.09050163451650471</v>
+        <v>0.0818224033365178</v>
       </c>
       <c r="T5">
-        <v>0.06335716869758591</v>
+        <v>0.0572575436771889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.84401633333333</v>
+        <v>12.227772</v>
       </c>
       <c r="H6">
-        <v>47.532049</v>
+        <v>36.683316</v>
       </c>
       <c r="I6">
-        <v>0.7212145038223592</v>
+        <v>0.6223179025846677</v>
       </c>
       <c r="J6">
-        <v>0.7256686596529557</v>
+        <v>0.6245980896688198</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N6">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O6">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P6">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q6">
-        <v>891.869265033215</v>
+        <v>547.5528396706161</v>
       </c>
       <c r="R6">
-        <v>8026.823385298935</v>
+        <v>4927.975557035545</v>
       </c>
       <c r="S6">
-        <v>0.283091813964574</v>
+        <v>0.1843173099202272</v>
       </c>
       <c r="T6">
-        <v>0.2972746720555886</v>
+        <v>0.1934718853187717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H7">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I7">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J7">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N7">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O7">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P7">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q7">
-        <v>5.337935924256667</v>
+        <v>5.445724790048</v>
       </c>
       <c r="R7">
-        <v>48.04142331831</v>
+        <v>49.01152311043199</v>
       </c>
       <c r="S7">
-        <v>0.001694335731558377</v>
+        <v>0.001833140605153921</v>
       </c>
       <c r="T7">
-        <v>0.001779221701600009</v>
+        <v>0.001924188070491161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H8">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I8">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J8">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P8">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q8">
-        <v>62.72885510373933</v>
+        <v>82.64646879257099</v>
       </c>
       <c r="R8">
-        <v>564.559695933654</v>
+        <v>743.8182191331389</v>
       </c>
       <c r="S8">
-        <v>0.01991101843674044</v>
+        <v>0.02782046534799509</v>
       </c>
       <c r="T8">
-        <v>0.02090855752125528</v>
+        <v>0.02920223761757219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H9">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I9">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J9">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N9">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O9">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P9">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q9">
-        <v>135.9330836462111</v>
+        <v>248.382235472174</v>
       </c>
       <c r="R9">
-        <v>1223.3977528159</v>
+        <v>2235.440119249566</v>
       </c>
       <c r="S9">
-        <v>0.04314706732916841</v>
+        <v>0.08361046123282544</v>
       </c>
       <c r="T9">
-        <v>0.0453087290332035</v>
+        <v>0.08776318173310975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H10">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I10">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J10">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N10">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O10">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P10">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q10">
-        <v>53.11048285338266</v>
+        <v>77.29599192610499</v>
       </c>
       <c r="R10">
-        <v>318.662897120296</v>
+        <v>463.7759515566299</v>
       </c>
       <c r="S10">
-        <v>0.01685801217843129</v>
+        <v>0.02601938711158112</v>
       </c>
       <c r="T10">
-        <v>0.01180173073338299</v>
+        <v>0.01820780291514772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.951312666666666</v>
+        <v>3.888411</v>
       </c>
       <c r="H11">
-        <v>8.853937999999999</v>
+        <v>11.665233</v>
       </c>
       <c r="I11">
-        <v>0.1343427989301267</v>
+        <v>0.1978960499023984</v>
       </c>
       <c r="J11">
-        <v>0.1351724879588164</v>
+        <v>0.1986211455731449</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N11">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O11">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P11">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q11">
-        <v>166.13117555083</v>
+        <v>174.120885215758</v>
       </c>
       <c r="R11">
-        <v>1495.18057995747</v>
+        <v>1567.087966941822</v>
       </c>
       <c r="S11">
-        <v>0.0527323652542282</v>
+        <v>0.05861259560484283</v>
       </c>
       <c r="T11">
-        <v>0.05537424896937462</v>
+        <v>0.06152373523682401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H12">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I12">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J12">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N12">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O12">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P12">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q12">
-        <v>0.7316565394525001</v>
+        <v>0.3013766829226667</v>
       </c>
       <c r="R12">
-        <v>4.389939236715001</v>
+        <v>1.808260097536</v>
       </c>
       <c r="S12">
-        <v>0.0002322380477422746</v>
+        <v>0.0001014494592017877</v>
       </c>
       <c r="T12">
-        <v>0.0001625820931015553</v>
+        <v>7.099213179284698E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H13">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I13">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J13">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P13">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q13">
-        <v>8.598075679488501</v>
+        <v>4.573811490712</v>
       </c>
       <c r="R13">
-        <v>51.588454076931</v>
+        <v>27.442868944272</v>
       </c>
       <c r="S13">
-        <v>0.002729149816167774</v>
+        <v>0.001539637034039293</v>
       </c>
       <c r="T13">
-        <v>0.001910586546062807</v>
+        <v>0.001077404612046857</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H14">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I14">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J14">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N14">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O14">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P14">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q14">
-        <v>18.63198265939166</v>
+        <v>13.74594146959467</v>
       </c>
       <c r="R14">
-        <v>111.79189595635</v>
+        <v>82.475648817568</v>
       </c>
       <c r="S14">
-        <v>0.005914052625871392</v>
+        <v>0.004627160650871055</v>
       </c>
       <c r="T14">
-        <v>0.004140230526282942</v>
+        <v>0.003237986691480805</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H15">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I15">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J15">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N15">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O15">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P15">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q15">
-        <v>7.279711230060999</v>
+        <v>4.27770600756</v>
       </c>
       <c r="R15">
-        <v>29.118844920244</v>
+        <v>17.11082403024</v>
       </c>
       <c r="S15">
-        <v>0.002310682448710125</v>
+        <v>0.001439961966807357</v>
       </c>
       <c r="T15">
-        <v>0.001078421021466227</v>
+        <v>0.000671769440853255</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.4045285</v>
+        <v>0.215192</v>
       </c>
       <c r="H16">
-        <v>0.809057</v>
+        <v>0.430384</v>
       </c>
       <c r="I16">
-        <v>0.01841400660485959</v>
+        <v>0.01095194072092608</v>
       </c>
       <c r="J16">
-        <v>0.01235181990098599</v>
+        <v>0.007328045922130521</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N16">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O16">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P16">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q16">
-        <v>22.7711540047425</v>
+        <v>9.636178256709334</v>
       </c>
       <c r="R16">
-        <v>136.626924028455</v>
+        <v>57.817069540256</v>
       </c>
       <c r="S16">
-        <v>0.007227883666368022</v>
+        <v>0.003243731610006591</v>
       </c>
       <c r="T16">
-        <v>0.005059999714072465</v>
+        <v>0.002269893045956756</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H17">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I17">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J17">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.808665</v>
+        <v>1.400501333333333</v>
       </c>
       <c r="N17">
-        <v>5.425995</v>
+        <v>4.201504</v>
       </c>
       <c r="O17">
-        <v>0.01261203239065773</v>
+        <v>0.00926314904242919</v>
       </c>
       <c r="P17">
-        <v>0.01316260230515319</v>
+        <v>0.009687730200823723</v>
       </c>
       <c r="Q17">
-        <v>5.00758567356</v>
+        <v>4.645995113173333</v>
       </c>
       <c r="R17">
-        <v>45.06827106204</v>
+        <v>41.81395601856</v>
       </c>
       <c r="S17">
-        <v>0.001589477928537339</v>
+        <v>0.001563935494659776</v>
       </c>
       <c r="T17">
-        <v>0.001669110538126206</v>
+        <v>0.001641612221878286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H18">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I18">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J18">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1482105374854993</v>
+        <v>0.1405812059498714</v>
       </c>
       <c r="P18">
-        <v>0.1546805702623864</v>
+        <v>0.1470248171880475</v>
       </c>
       <c r="Q18">
-        <v>58.84673787650399</v>
+        <v>70.50945557017999</v>
       </c>
       <c r="R18">
-        <v>529.6206408885359</v>
+        <v>634.58510013162</v>
       </c>
       <c r="S18">
-        <v>0.0186787799787415</v>
+        <v>0.02373490233828985</v>
       </c>
       <c r="T18">
-        <v>0.01961458409840753</v>
+        <v>0.02491375500886651</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H19">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I19">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J19">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>46.05851666666666</v>
+        <v>63.87756733333333</v>
       </c>
       <c r="N19">
-        <v>138.17555</v>
+        <v>191.632702</v>
       </c>
       <c r="O19">
-        <v>0.3211714187346186</v>
+        <v>0.4224968677952986</v>
       </c>
       <c r="P19">
-        <v>0.3351919441403484</v>
+        <v>0.4418622271050682</v>
       </c>
       <c r="Q19">
-        <v>127.5205569884</v>
+        <v>211.9061643202533</v>
       </c>
       <c r="R19">
-        <v>1147.6850128956</v>
+        <v>1907.15547888228</v>
       </c>
       <c r="S19">
-        <v>0.04047681337496763</v>
+        <v>0.07133188129664032</v>
       </c>
       <c r="T19">
-        <v>0.04250469575006693</v>
+        <v>0.07487475573384184</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H20">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I20">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J20">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.995546</v>
+        <v>19.878555</v>
       </c>
       <c r="N20">
-        <v>35.99109199999999</v>
+        <v>39.75711</v>
       </c>
       <c r="O20">
-        <v>0.1254850450689161</v>
+        <v>0.1314800731212866</v>
       </c>
       <c r="P20">
-        <v>0.08730867435819246</v>
+        <v>0.0916710195312133</v>
       </c>
       <c r="Q20">
-        <v>49.82362037054399</v>
+        <v>65.94472078589999</v>
       </c>
       <c r="R20">
-        <v>298.9417222232639</v>
+        <v>395.6683247154</v>
       </c>
       <c r="S20">
-        <v>0.01581471592526996</v>
+        <v>0.02219832070638031</v>
       </c>
       <c r="T20">
-        <v>0.01107135390575733</v>
+        <v>0.01553390349802342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.768664</v>
+        <v>3.31738</v>
       </c>
       <c r="H21">
-        <v>8.305992</v>
+        <v>9.95214</v>
       </c>
       <c r="I21">
-        <v>0.1260286906426543</v>
+        <v>0.168834106792008</v>
       </c>
       <c r="J21">
-        <v>0.1268070324872419</v>
+        <v>0.1694527188359048</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>56.290605</v>
+        <v>44.77944466666667</v>
       </c>
       <c r="N21">
-        <v>168.871815</v>
+        <v>134.338334</v>
       </c>
       <c r="O21">
-        <v>0.3925209663203081</v>
+        <v>0.2961787040911142</v>
       </c>
       <c r="P21">
-        <v>0.4096562089339196</v>
+        <v>0.3097542059748472</v>
       </c>
       <c r="Q21">
-        <v>155.84977160172</v>
+        <v>148.5504341483067</v>
       </c>
       <c r="R21">
-        <v>1402.64794441548</v>
+        <v>1336.95390733476</v>
       </c>
       <c r="S21">
-        <v>0.04946890343513783</v>
+        <v>0.05000506695603771</v>
       </c>
       <c r="T21">
-        <v>0.05194728819488389</v>
+        <v>0.05248869237329472</v>
       </c>
     </row>
   </sheetData>
